--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +676,15 @@
       <c r="N2" t="s">
         <v>46</v>
       </c>
+      <c r="O2" s="1">
+        <v>1200</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1150</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>100</v>
+      </c>
       <c r="T2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1040,5 +1049,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Brand New (Official)</t>
+  </si>
+  <si>
+    <t>C:\Users\alifh\Downloads\starttech.png</t>
+  </si>
+  <si>
+    <t>C:\Users\alifh\Downloads\starttech.png,C:\Users\alifh\Downloads\starttech.png,C:\Users\alifh\Downloads\starttech.png</t>
   </si>
 </sst>
 </file>
@@ -524,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,8 +541,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="167.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -664,6 +670,9 @@
       <c r="H2" s="1">
         <v>12340</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K2" t="s">
         <v>46</v>
       </c>
@@ -721,7 +730,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -772,7 +783,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -833,8 +846,12 @@
       <c r="H5" s="1">
         <v>45065</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K5" t="s">
         <v>46</v>
       </c>
@@ -912,8 +929,12 @@
       <c r="H6" s="1">
         <v>23466</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K6" t="s">
         <v>46</v>
       </c>
@@ -991,8 +1012,12 @@
       <c r="H7" s="1">
         <v>34672</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K7" t="s">
         <v>46</v>
       </c>

--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F79504-7ED7-419C-812A-EC226FFE3051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -204,20 +205,28 @@
     <t>Brand New (Official)</t>
   </si>
   <si>
-    <t>C:\Users\alifh\Downloads\starttech.png</t>
-  </si>
-  <si>
-    <t>C:\Users\alifh\Downloads\starttech.png,C:\Users\alifh\Downloads\starttech.png,C:\Users\alifh\Downloads\starttech.png</t>
+    <t>https://app-area.zanalifestyle.com/productImages/y86hf1706956325.jpg</t>
+  </si>
+  <si>
+    <t>https://app-area.zanalifestyle.com/productImages/y86hf1706956325.jpg,https://app-area.zanalifestyle.com/productImages/y86hf1706956325.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,16 +249,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -527,39 +541,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="112.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="167.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="167.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -719,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -772,7 +786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -825,7 +839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -849,7 +863,7 @@
       <c r="I5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="K5" t="s">
@@ -906,7 +920,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -932,7 +946,7 @@
       <c r="I6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="K6" t="s">
@@ -989,7 +1003,7 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1015,9 +1029,7 @@
       <c r="I7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" t="s">
         <v>46</v>
       </c>
@@ -1073,7 +1085,11 @@
       <c r="AE7" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{863FCD6E-D536-41E4-92A6-582F44FD9634}"/>
+    <hyperlink ref="J6" r:id="rId2" xr:uid="{52EC081A-EC81-4B32-933C-82CFBE4024AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>